--- a/biology/Zoologie/Andiperla_willinki/Andiperla_willinki.xlsx
+++ b/biology/Zoologie/Andiperla_willinki/Andiperla_willinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andiperla willinki est une espèce d'insectes plécoptères de la famille des Gripopterygidae, la seule du genre Andiperla[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andiperla willinki est une espèce d'insectes plécoptères de la famille des Gripopterygidae, la seule du genre Andiperla.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud, en Argentine et au Chili au sud du 48e parallèle sud.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est rouge et noir, elle mesure 15 mm de long.
 Cet insecte présente la particularité de pouvoir survivre à l'air libre, sur un glacier, aussi bien que dans l'eau, sous le glacier, dans des conditions de températures extrêmes. Ce mode de vie particulier peut être associé à la présence de branchies anales (trachéobranchies) qui représentent un caractère néoténique chez l'adulte, puisqu'il s'agit originellement d'un caractère larvaire chez les insectes.
-En 2001, il a été observé sur un glacier de Patagonie dans le parc national Torres del Paine[2]. À cette occasion, il a été surnommé Dragon de patagonie par l'équipe de tournage.
+En 2001, il a été observé sur un glacier de Patagonie dans le parc national Torres del Paine. À cette occasion, il a été surnommé Dragon de patagonie par l'équipe de tournage.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aubert, 1956 : Andiperla willinki n. sp., Plécoptère nouveau des Andes de Patagonie. Mitteilungen der Schweizerischen Entomologischen Gesellschaft, vol. 29, p. 229-252.</t>
         </is>
